--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -16,9 +16,10 @@
     <sheet name="Sprint #4" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #3'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #4'!$B$10:$J$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -250,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t xml:space="preserve">PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -279,7 +280,13 @@
     <t xml:space="preserve">Aylton Almeida</t>
   </si>
   <si>
+    <t xml:space="preserve">Analista de Requisitos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucas Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquiteto de Software</t>
   </si>
   <si>
     <t xml:space="preserve">Nayane Ornelas</t>
@@ -327,9 +334,6 @@
     <t xml:space="preserve">Adiantado</t>
   </si>
   <si>
-    <t xml:space="preserve">Analista de Requisitos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inativo</t>
   </si>
   <si>
@@ -340,9 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquiteto de Software</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint #3</t>
@@ -457,6 +458,18 @@
   </si>
   <si>
     <t xml:space="preserve">Observações sobre a tarefa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualização e Cadastro de produtos em arquivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aylton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pronto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vizualização e Cadastro de clientes em arquivo</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
@@ -697,7 +710,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -727,7 +740,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF878787"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -1142,7 +1155,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="21">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1150,7 +1163,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1159,7 +1171,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1168,7 +1179,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1177,7 +1187,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1186,7 +1195,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1195,7 +1203,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1204,7 +1211,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1213,7 +1219,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1222,7 +1227,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1231,7 +1235,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1240,7 +1243,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1249,7 +1251,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1258,7 +1259,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1267,7 +1267,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1276,7 +1275,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1285,7 +1283,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1294,7 +1291,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1303,7 +1299,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1312,7 +1307,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1321,7 +1315,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,133 +1323,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1494,21 +1360,21 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFB7E1CD"/>
+      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FFA4C2F4"/>
-      <rgbColor rgb="FFFFA1A1"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FF3366CC"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFE69138"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF3C78D8"/>
-      <rgbColor rgb="FFB6D7A8"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF073763"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1567,10 +1433,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.152462683160634"/>
-          <c:y val="0.156668515730248"/>
-          <c:w val="0.723604327383941"/>
-          <c:h val="0.670813852127744"/>
+          <c:x val="0.152469643020177"/>
+          <c:y val="0.156680932001902"/>
+          <c:w val="0.723591710033781"/>
+          <c:h val="0.670787763512443"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1578,6 +1444,84 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$I$98:$I$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Gasto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint #3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados do Projeto'!$I$99:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Dados do Projeto'!$H$98:$H$98</c:f>
@@ -1638,7 +1582,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1653,89 +1597,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$I$98:$I$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo Gasto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="dc3912">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="dc3912"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint #1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint #2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint #3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados do Projeto'!$I$99:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="97801057"/>
-        <c:axId val="26903728"/>
+        <c:axId val="59090305"/>
+        <c:axId val="85019192"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="97801057"/>
+        <c:axId val="59090305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,14 +1633,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26903728"/>
+        <c:crossAx val="85019192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26903728"/>
+        <c:axId val="85019192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1713,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97801057"/>
+        <c:crossAx val="59090305"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1908,9 +1774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
+      <xdr:colOff>579960</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1919,7 +1785,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1042200" y="3130560"/>
-        <a:ext cx="7886160" cy="4542480"/>
+        <a:ext cx="7885800" cy="4542120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1953,7 +1819,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2118,7 +1984,9 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="1"/>
@@ -2131,12 +1999,14 @@
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="1"/>
@@ -2149,7 +2019,7 @@
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2167,7 +2037,7 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2295,7 +2165,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3427,29 +3297,29 @@
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J98" s="21"/>
       <c r="K98" s="22"/>
       <c r="L98" s="22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O98" s="24"/>
     </row>
@@ -3458,22 +3328,22 @@
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H99" s="27" t="n">
         <f aca="false">'Sprint #1'!H$61</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I99" s="27" t="n">
         <f aca="false">'Sprint #1'!I$61</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="22" t="str">
@@ -3485,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O99" s="24"/>
     </row>
@@ -3497,14 +3367,14 @@
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="26" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H100" s="27" t="n">
         <f aca="false">'Sprint #2'!H$70</f>
@@ -3524,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O100" s="24"/>
     </row>
@@ -3536,7 +3406,7 @@
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="26" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="21"/>
@@ -4659,10 +4529,10 @@
     <tabColor rgb="FF3C78D8"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5128,1374 +4998,1018 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="43" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
-      <c r="B31" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="43" t="n">
-        <v>12</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
-      <c r="B33" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
-      <c r="B34" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
-      <c r="B35" s="46" t="n">
-        <v>15</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
-      <c r="B36" s="43" t="n">
-        <v>16</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
-      <c r="B37" s="46" t="n">
-        <v>17</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="n">
-        <v>18</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
-      <c r="B39" s="46" t="n">
-        <v>19</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
-      <c r="B40" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
-      <c r="B41" s="46" t="n">
-        <v>21</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
-      <c r="B42" s="43" t="n">
-        <v>22</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
-      <c r="B43" s="46" t="n">
-        <v>23</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
-      <c r="B44" s="43" t="n">
-        <v>24</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
-      <c r="B45" s="46" t="n">
-        <v>25</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
-      <c r="B46" s="43" t="n">
-        <v>26</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
-      <c r="B47" s="46" t="n">
-        <v>27</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
-      <c r="B48" s="43" t="n">
-        <v>28</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
-      <c r="B49" s="46" t="n">
-        <v>29</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
-      <c r="B50" s="43" t="n">
-        <v>30</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
-      <c r="B51" s="46" t="n">
-        <v>31</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
-      <c r="B52" s="43" t="n">
-        <v>32</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
-      <c r="B53" s="46" t="n">
-        <v>33</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
-      <c r="B54" s="43" t="n">
-        <v>34</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
-      <c r="B55" s="46" t="n">
-        <v>35</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
-      <c r="B56" s="43" t="n">
-        <v>36</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
-      <c r="B57" s="46" t="n">
-        <v>37</v>
-      </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
-      <c r="B58" s="43" t="n">
-        <v>38</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
-      <c r="B59" s="46" t="n">
-        <v>39</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
-      <c r="B60" s="43" t="n">
-        <v>40</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="14"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
-      <c r="B61" s="46" t="n">
-        <v>41</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
-      <c r="B62" s="43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="14"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
-      <c r="B63" s="46" t="n">
-        <v>43</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
-      <c r="B64" s="43" t="n">
-        <v>44</v>
-      </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="14"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="43" t="n">
-        <v>46</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="46" t="n">
-        <v>47</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="43" t="n">
-        <v>48</v>
-      </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="46" t="n">
-        <v>49</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="14"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
-      <c r="B71" s="46" t="n">
-        <v>51</v>
-      </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
-      <c r="B72" s="43" t="n">
-        <v>52</v>
-      </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="46" t="n">
-        <v>53</v>
-      </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
-      <c r="B74" s="43" t="n">
-        <v>54</v>
-      </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
-      <c r="B75" s="46" t="n">
-        <v>55</v>
-      </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
-      <c r="B76" s="43" t="n">
-        <v>56</v>
-      </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="B77" s="46" t="n">
-        <v>57</v>
-      </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
-      <c r="B78" s="43" t="n">
-        <v>58</v>
-      </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="14"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
-      <c r="B79" s="46" t="n">
-        <v>59</v>
-      </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
-      <c r="B80" s="43" t="n">
-        <v>60</v>
-      </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="14"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
-      <c r="B81" s="46" t="n">
-        <v>61</v>
-      </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="14"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
-      <c r="B82" s="43" t="n">
-        <v>62</v>
-      </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
-      <c r="B83" s="46" t="n">
-        <v>63</v>
-      </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
-      <c r="B84" s="43" t="n">
-        <v>64</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="14"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
-      <c r="B85" s="46" t="n">
-        <v>65</v>
-      </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
-      <c r="B86" s="43" t="n">
-        <v>66</v>
-      </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="14"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
-      <c r="B87" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="14"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
-      <c r="B88" s="43" t="n">
-        <v>68</v>
-      </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="14"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
-      <c r="B89" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
-      <c r="B90" s="43" t="n">
-        <v>70</v>
-      </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="14"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
-      <c r="B91" s="46" t="n">
-        <v>71</v>
-      </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="14"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
-      <c r="B92" s="43" t="n">
-        <v>72</v>
-      </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="14"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
-      <c r="B93" s="46" t="n">
-        <v>73</v>
-      </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="14"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
-      <c r="B94" s="43" t="n">
-        <v>74</v>
-      </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="14"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
-      <c r="B95" s="46" t="n">
-        <v>75</v>
-      </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="14"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
-      <c r="B96" s="43" t="n">
-        <v>76</v>
-      </c>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="14"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
-      <c r="B97" s="46" t="n">
-        <v>77</v>
-      </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="14"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
-      <c r="B98" s="43" t="n">
-        <v>78</v>
-      </c>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="14"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
-      <c r="B99" s="46" t="n">
-        <v>79</v>
-      </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="14"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
-      <c r="B100" s="43" t="n">
-        <v>80</v>
-      </c>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="14"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
-      <c r="B101" s="46" t="n">
-        <v>81</v>
-      </c>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="14"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
-      <c r="B102" s="43" t="n">
-        <v>82</v>
-      </c>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="14"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
-      <c r="B103" s="46" t="n">
-        <v>83</v>
-      </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="14"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
-      <c r="B104" s="43" t="n">
-        <v>84</v>
-      </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="14"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
-      <c r="B105" s="46" t="n">
-        <v>85</v>
-      </c>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="14"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
-      <c r="B106" s="43" t="n">
-        <v>86</v>
-      </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="14"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
-      <c r="B107" s="46" t="n">
-        <v>87</v>
-      </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="14"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
-      <c r="B108" s="43" t="n">
-        <v>88</v>
-      </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="14"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
-      <c r="B109" s="46" t="n">
-        <v>89</v>
-      </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="14"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
-      <c r="B110" s="43" t="n">
-        <v>90</v>
-      </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="14"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
-      <c r="B111" s="46" t="n">
-        <v>91</v>
-      </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="14"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
-      <c r="B112" s="43" t="n">
-        <v>92</v>
-      </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="14"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
-      <c r="B113" s="46" t="n">
-        <v>93</v>
-      </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
-      <c r="B114" s="43" t="n">
-        <v>94</v>
-      </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="14"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
-      <c r="B115" s="46" t="n">
-        <v>95</v>
-      </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="14"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
-      <c r="B116" s="43" t="n">
-        <v>96</v>
-      </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="14"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
-      <c r="B117" s="46" t="n">
-        <v>97</v>
-      </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="14"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
-      <c r="B118" s="43" t="n">
-        <v>98</v>
-      </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="14"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
-      <c r="B119" s="46" t="n">
-        <v>99</v>
-      </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="14"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
-      <c r="B120" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B120" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="14"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="B121" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
@@ -6504,9 +6018,13 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="B122" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49" t="s">
+        <v>29</v>
+      </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
       <c r="G122" s="28"/>
@@ -6515,9 +6033,13 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="B123" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49" t="s">
+        <v>32</v>
+      </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
@@ -6526,1034 +6048,108 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49" t="s">
+        <v>35</v>
+      </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
       <c r="G124" s="28"/>
       <c r="H124" s="14"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="1"/>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="1"/>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="1"/>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="1"/>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="14"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="14"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="28"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="14"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="14"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="1"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="14"/>
-      <c r="I203" s="1"/>
-    </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
-      <c r="E204" s="28"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="1"/>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="14"/>
-      <c r="I205" s="1"/>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1"/>
-      <c r="B206" s="14"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="14"/>
-      <c r="I206" s="1"/>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1"/>
-      <c r="B207" s="14"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="28"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
-      <c r="H207" s="14"/>
-      <c r="I207" s="1"/>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1"/>
-      <c r="B208" s="14"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
-      <c r="H208" s="14"/>
-      <c r="I208" s="1"/>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
-      <c r="F209" s="28"/>
-      <c r="G209" s="28"/>
-      <c r="H209" s="14"/>
-      <c r="I209" s="1"/>
-    </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1"/>
-      <c r="B210" s="14"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
-      <c r="F210" s="28"/>
-      <c r="G210" s="28"/>
-      <c r="H210" s="14"/>
-      <c r="I210" s="1"/>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1"/>
-      <c r="B211" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C211" s="49"/>
-      <c r="D211" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E211" s="28"/>
-      <c r="F211" s="28"/>
-      <c r="G211" s="28"/>
-      <c r="H211" s="14"/>
-      <c r="I211" s="1"/>
-    </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1"/>
-      <c r="B212" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="49"/>
-      <c r="D212" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E212" s="28"/>
-      <c r="F212" s="28"/>
-      <c r="G212" s="28"/>
-      <c r="H212" s="14"/>
-      <c r="I212" s="1"/>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1"/>
-      <c r="B213" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C213" s="49"/>
-      <c r="D213" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="14"/>
-      <c r="I213" s="1"/>
-    </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1"/>
-      <c r="B214" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C214" s="49"/>
-      <c r="D214" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E214" s="28"/>
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="14"/>
-      <c r="I214" s="1"/>
-    </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1"/>
-      <c r="B215" s="49"/>
-      <c r="C215" s="49"/>
-      <c r="D215" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
-      <c r="G215" s="28"/>
-      <c r="H215" s="14"/>
-      <c r="I215" s="1"/>
-    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8248,99 +6844,99 @@
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="24">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -8365,100 +6961,9 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H120" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H29" type="list">
       <formula1>$B$212:$B$214</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8485,7 +6990,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8702,16 +7207,26 @@
       <c r="B11" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" s="58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="57"/>
       <c r="K11" s="51" t="n">
@@ -8734,8 +7249,12 @@
       <c r="B12" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -8819,7 +7338,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -8837,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
@@ -8855,7 +7374,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="56"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -9629,15 +8148,15 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H61" s="62" t="n">
         <f aca="false">SUM(H11:H60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61" s="62" t="n">
         <f aca="false">SUM(I11:I60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J61" s="52"/>
     </row>
@@ -9647,7 +8166,7 @@
       <c r="C62" s="24"/>
       <c r="D62" s="24" t="n">
         <f aca="false">COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -9662,7 +8181,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -9675,7 +8194,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -9683,10 +8202,10 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10721,7 +9240,7 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B10:J60"/>
+  <autoFilter ref="B10:J69"/>
   <mergeCells count="14">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -10961,7 +9480,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -12163,7 +10682,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H70" s="62" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -12196,7 +10715,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
@@ -12209,7 +10728,7 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -12217,10 +10736,10 @@
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
       <c r="H73" s="55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13318,77 +11837,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$75),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$76),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13579,7 +12098,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -14563,7 +13082,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H61" s="62" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -14596,7 +13115,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -14609,7 +13128,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -14617,10 +13136,10 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15728,77 +14247,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15863,142 +14382,142 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16190,7 +14709,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -17209,7 +15728,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H61" s="62" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -17242,7 +15761,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -17255,7 +15774,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -17263,10 +15782,10 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18374,77 +16893,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,10 +16,10 @@
     <sheet name="Sprint #4" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #3'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #4'!$B$10:$J$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +44,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preencha com os nomes dos integrantes do grupo.</t>
         </r>
@@ -58,7 +57,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Selecione a distribuição de responsabilidades.</t>
         </r>
@@ -82,7 +80,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">"Tarefas Criadas": Tarefas geradas e distribuídas nas sprints.
 "Tarefas Concluídas": Todas tarefas concluídas.
@@ -108,7 +105,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -122,7 +118,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -147,7 +142,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -161,7 +155,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -186,7 +179,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -200,7 +192,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -225,7 +216,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -239,7 +229,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -251,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t xml:space="preserve">PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -292,7 +281,13 @@
     <t xml:space="preserve">Nayane Ornelas</t>
   </si>
   <si>
+    <t xml:space="preserve">Testador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pedro Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programador</t>
   </si>
   <si>
     <t xml:space="preserve">           </t>
@@ -352,16 +347,10 @@
     <t xml:space="preserve">Atrasado</t>
   </si>
   <si>
-    <t xml:space="preserve">Programador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint #4</t>
   </si>
   <si>
     <t xml:space="preserve">Concluído</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testador</t>
   </si>
   <si>
     <t xml:space="preserve">SPRINTS</t>
@@ -391,10 +380,13 @@
     <t xml:space="preserve">Selecionar</t>
   </si>
   <si>
-    <t xml:space="preserve">O proprietário faz cotrole de cadastro de funncionários</t>
+    <t xml:space="preserve">O funcionário/proprietário deve fazer controle de cadastro de funcionários</t>
   </si>
   <si>
     <t xml:space="preserve">Pendente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O proprietário faz cotrole de cadastro de usuário</t>
   </si>
   <si>
     <t xml:space="preserve">O funcionário/proprietário faz controle de cadastro de produtos</t>
@@ -409,7 +401,7 @@
     <t xml:space="preserve">O funcionário/proprietário deve fazer controle de cadastro de clientes</t>
   </si>
   <si>
-    <t xml:space="preserve">o funcionário/proprietário deseja ver o valor total de vendas no período determinado por ele</t>
+    <t xml:space="preserve">O funcionário/proprietário deseja ver o valor total de vendas no período determinado por ele</t>
   </si>
   <si>
     <t xml:space="preserve">O funcionário/proprietário deseja ver o valor total de vendas classificado por tipo de pagamento</t>
@@ -463,13 +455,40 @@
     <t xml:space="preserve">Visualização e Cadastro de produtos em arquivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Aylton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pronto</t>
   </si>
   <si>
+    <t xml:space="preserve">Alterar o armazenamento do cadastro para o SQL Server</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vizualização e Cadastro de clientes em arquivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação do banco no SQL Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação da página de gerência do usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação da página de cadastro de usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro de usuário no banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração do usuário no banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação da página de vizualização dos funcionários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação da página de cadastro de funcionários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listagem de funcionários </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro de funcionário no banco</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
@@ -500,16 +519,15 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="DD\/MMM\/YYYY\ "/>
-    <numFmt numFmtId="167" formatCode="DD\/MMM"/>
+    <numFmt numFmtId="166" formatCode="DD/MMM/YYYY\ "/>
+    <numFmt numFmtId="167" formatCode="DD/MMM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -528,25 +546,99 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -554,7 +646,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -562,20 +653,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -583,30 +660,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -641,14 +700,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -656,7 +713,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -665,35 +721,73 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF878787"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -740,13 +834,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF878787"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -756,12 +850,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -828,7 +937,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -852,8 +961,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -862,39 +1022,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,47 +1062,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,19 +1110,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -970,91 +1130,91 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,100 +1226,120 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="17" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="10">
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1167,7 +1347,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1175,7 +1354,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1183,7 +1361,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1191,7 +1368,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1199,7 +1375,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1207,7 +1382,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1215,7 +1389,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1223,7 +1396,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1231,95 +1403,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
@@ -1331,21 +1414,21 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF6D9EEB"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1360,21 +1443,21 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FFA4C2F4"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFCE5CD"/>
+      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366CC"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF3C78D8"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF073763"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1431,12 +1514,13 @@
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.152469643020177"/>
-          <c:y val="0.156680932001902"/>
-          <c:w val="0.723591710033781"/>
-          <c:h val="0.670787763512443"/>
+          <c:x val="0.193563113444419"/>
+          <c:y val="0.176666402472854"/>
+          <c:w val="0.641360419995435"/>
+          <c:h val="0.599508599508599"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1446,7 +1530,85 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dados do Projeto'!$I$98:$I$98</c:f>
+              <c:f>'Dados do Projeto'!$H$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Previsto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366cc">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint #3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados do Projeto'!$H$99:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$I$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1504,7 +1666,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1519,89 +1681,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$H$98:$H$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo Previsto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366cc">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3366cc"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint #1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint #2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint #3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados do Projeto'!$H$99:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="59090305"/>
-        <c:axId val="85019192"/>
+        <c:axId val="47545063"/>
+        <c:axId val="31898075"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="59090305"/>
+        <c:axId val="47545063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,14 +1717,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85019192"/>
+        <c:crossAx val="31898075"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85019192"/>
+        <c:axId val="31898075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59090305"/>
+        <c:crossAx val="47545063"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1768,15 +1852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>579960</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1784,8 +1868,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1042200" y="3130560"/>
-        <a:ext cx="7885800" cy="4542120"/>
+        <a:off x="1042920" y="3130560"/>
+        <a:ext cx="7885440" cy="4541760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2024,7 +2108,9 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="1"/>
@@ -2037,12 +2123,14 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
@@ -2165,7 +2253,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3297,29 +3385,29 @@
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J98" s="21"/>
       <c r="K98" s="22"/>
       <c r="L98" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O98" s="24"/>
     </row>
@@ -3328,22 +3416,22 @@
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H99" s="27" t="n">
         <f aca="false">'Sprint #1'!H$61</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I99" s="27" t="n">
         <f aca="false">'Sprint #1'!I$61</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="22" t="str">
@@ -3352,13 +3440,13 @@
       </c>
       <c r="L99" s="22" t="n">
         <f aca="false">SUM('Sprint #1'!$I65, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #4'!$I65)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O99" s="24"/>
     </row>
@@ -3371,10 +3459,10 @@
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H100" s="27" t="n">
         <f aca="false">'Sprint #2'!H$70</f>
@@ -3394,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O100" s="24"/>
     </row>
@@ -3411,7 +3499,7 @@
       <c r="E101" s="26"/>
       <c r="F101" s="21"/>
       <c r="G101" s="22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H101" s="27" t="n">
         <f aca="false">'Sprint #3'!H$61</f>
@@ -3431,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N101" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O101" s="24"/>
     </row>
@@ -3443,12 +3531,12 @@
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="26" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="21"/>
       <c r="G102" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102" s="27" t="n">
         <f aca="false">'Sprint #4'!H$61</f>
@@ -3468,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
@@ -3478,7 +3566,7 @@
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="26" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="21"/>
@@ -4506,7 +4594,7 @@
     <mergeCell ref="B105:C105"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F10:F13" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F10:F13" type="list">
       <formula1>$D$100:$E$104</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4531,8 +4619,8 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4843,8 +4931,8 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
       <c r="B21" s="46" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +4946,20 @@
       <c r="H21" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="43" t="n">
+      <c r="B22" s="46" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -4879,7 +4976,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="43" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -4896,7 +4993,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="B24" s="43" t="n">
+      <c r="B24" s="46" t="n">
         <v>4</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -4913,7 +5010,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="43" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -4930,7 +5027,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
-      <c r="B26" s="43" t="n">
+      <c r="B26" s="46" t="n">
         <v>6</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -4947,7 +5044,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="43" t="n">
         <v>7</v>
       </c>
       <c r="C27" s="47" t="s">
@@ -4964,7 +5061,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="46" t="n">
         <v>8</v>
       </c>
       <c r="C28" s="47" t="s">
@@ -4981,7 +5078,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
-      <c r="B29" s="46" t="n">
+      <c r="B29" s="43" t="n">
         <v>9</v>
       </c>
       <c r="C29" s="47" t="s">
@@ -4998,13 +5095,19 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5988,13 +6091,9 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
-      <c r="B120" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
@@ -6004,11 +6103,11 @@
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="49" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -6019,11 +6118,11 @@
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="49" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C122" s="49"/>
       <c r="D122" s="49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -6038,7 +6137,7 @@
       </c>
       <c r="C123" s="49"/>
       <c r="D123" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -6048,10 +6147,12 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
-      <c r="B124" s="49"/>
+      <c r="B124" s="49" t="s">
+        <v>59</v>
+      </c>
       <c r="C124" s="49"/>
       <c r="D124" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -6059,7 +6160,19 @@
       <c r="H124" s="14"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="1"/>
+    </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6844,7 +6957,7 @@
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6936,7 +7049,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -6961,9 +7074,10 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H29" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H30" type="list">
       <formula1>$B$212:$B$214</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6987,10 +7101,10 @@
   </sheetPr>
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7151,7 +7265,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -7161,7 +7275,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -7174,28 +7288,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -7211,13 +7325,13 @@
         <v>43538</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="57" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>71</v>
@@ -7250,16 +7364,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="56" t="n">
-        <v>43538</v>
+        <v>43548</v>
       </c>
       <c r="D12" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="58" t="n">
         <v>0</v>
@@ -7275,16 +7395,26 @@
       <c r="B13" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="H13" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="51" t="n">
@@ -7297,13 +7427,23 @@
       <c r="B14" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="C14" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H14" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="58" t="n">
         <v>0</v>
@@ -7319,13 +7459,23 @@
       <c r="B15" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="56" t="n">
+        <v>43544</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" s="58" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I15" s="58" t="n">
         <v>0</v>
@@ -7337,13 +7487,23 @@
       <c r="B16" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H16" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="58" t="n">
         <v>0</v>
@@ -7355,13 +7515,23 @@
       <c r="B17" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="58" t="n">
         <v>0</v>
@@ -7373,13 +7543,23 @@
       <c r="B18" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="58" t="n">
         <v>0</v>
@@ -7391,13 +7571,23 @@
       <c r="B19" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="C19" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="H19" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="58" t="n">
         <v>0</v>
@@ -7409,29 +7599,51 @@
       <c r="B20" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="58" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="57"/>
     </row>
-    <row r="21" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="n">
         <v>11</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="56" t="n">
+        <v>43538</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H21" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="58" t="n">
         <v>0</v>
@@ -7443,13 +7655,23 @@
       <c r="B22" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="C22" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H22" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="58" t="n">
         <v>0</v>
@@ -7461,13 +7683,23 @@
       <c r="B23" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H23" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="58" t="n">
         <v>0</v>
@@ -7480,10 +7712,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="58" t="n">
         <v>0</v>
       </c>
@@ -7498,10 +7730,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="58" t="n">
         <v>0</v>
       </c>
@@ -7516,10 +7748,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="56"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="58" t="n">
         <v>0</v>
       </c>
@@ -7534,10 +7766,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="56"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="58" t="n">
         <v>0</v>
       </c>
@@ -7552,8 +7784,8 @@
         <v>18</v>
       </c>
       <c r="C28" s="56"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="58" t="n">
@@ -7570,8 +7802,8 @@
         <v>19</v>
       </c>
       <c r="C29" s="56"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="58" t="n">
@@ -7588,8 +7820,8 @@
         <v>20</v>
       </c>
       <c r="C30" s="56"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="58" t="n">
@@ -7606,8 +7838,8 @@
         <v>21</v>
       </c>
       <c r="C31" s="56"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="58" t="n">
@@ -7624,8 +7856,8 @@
         <v>22</v>
       </c>
       <c r="C32" s="56"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="58" t="n">
@@ -7642,8 +7874,8 @@
         <v>23</v>
       </c>
       <c r="C33" s="56"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
       <c r="H33" s="58" t="n">
@@ -7660,8 +7892,8 @@
         <v>24</v>
       </c>
       <c r="C34" s="56"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
       <c r="H34" s="58" t="n">
@@ -7678,8 +7910,8 @@
         <v>25</v>
       </c>
       <c r="C35" s="56"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
       <c r="H35" s="58" t="n">
@@ -7696,8 +7928,8 @@
         <v>26</v>
       </c>
       <c r="C36" s="56"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="58" t="n">
@@ -7714,8 +7946,8 @@
         <v>27</v>
       </c>
       <c r="C37" s="56"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="58" t="n">
@@ -7732,8 +7964,8 @@
         <v>28</v>
       </c>
       <c r="C38" s="56"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
       <c r="H38" s="58" t="n">
@@ -7750,8 +7982,8 @@
         <v>29</v>
       </c>
       <c r="C39" s="56"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
       <c r="H39" s="58" t="n">
@@ -7768,8 +8000,8 @@
         <v>30</v>
       </c>
       <c r="C40" s="56"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="58" t="n">
@@ -7786,8 +8018,8 @@
         <v>31</v>
       </c>
       <c r="C41" s="56"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
       <c r="H41" s="58" t="n">
@@ -7804,8 +8036,8 @@
         <v>32</v>
       </c>
       <c r="C42" s="56"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
       <c r="H42" s="58" t="n">
@@ -7822,8 +8054,8 @@
         <v>33</v>
       </c>
       <c r="C43" s="56"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="58" t="n">
@@ -7840,8 +8072,8 @@
         <v>34</v>
       </c>
       <c r="C44" s="56"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
       <c r="H44" s="58" t="n">
@@ -7858,8 +8090,8 @@
         <v>35</v>
       </c>
       <c r="C45" s="56"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="58" t="n">
@@ -7876,8 +8108,8 @@
         <v>36</v>
       </c>
       <c r="C46" s="56"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
       <c r="H46" s="58" t="n">
@@ -7894,8 +8126,8 @@
         <v>37</v>
       </c>
       <c r="C47" s="56"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
       <c r="H47" s="58" t="n">
@@ -7912,8 +8144,8 @@
         <v>38</v>
       </c>
       <c r="C48" s="56"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
       <c r="H48" s="58" t="n">
@@ -7930,8 +8162,8 @@
         <v>39</v>
       </c>
       <c r="C49" s="56"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
       <c r="H49" s="58" t="n">
@@ -7948,8 +8180,8 @@
         <v>40</v>
       </c>
       <c r="C50" s="56"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
       <c r="H50" s="58" t="n">
@@ -7966,8 +8198,8 @@
         <v>41</v>
       </c>
       <c r="C51" s="56"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="58" t="n">
@@ -7984,8 +8216,8 @@
         <v>42</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="58" t="n">
@@ -8002,8 +8234,8 @@
         <v>43</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="58" t="n">
@@ -8020,8 +8252,8 @@
         <v>44</v>
       </c>
       <c r="C54" s="56"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="58" t="n">
@@ -8038,8 +8270,8 @@
         <v>45</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="58" t="n">
@@ -8056,8 +8288,8 @@
         <v>46</v>
       </c>
       <c r="C56" s="56"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
       <c r="H56" s="58" t="n">
@@ -8074,8 +8306,8 @@
         <v>47</v>
       </c>
       <c r="C57" s="56"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
       <c r="H57" s="58" t="n">
@@ -8092,8 +8324,8 @@
         <v>48</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="58" t="n">
@@ -8110,8 +8342,8 @@
         <v>49</v>
       </c>
       <c r="C59" s="56"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="58" t="n">
@@ -8128,8 +8360,8 @@
         <v>50</v>
       </c>
       <c r="C60" s="56"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="58" t="n">
@@ -8147,16 +8379,16 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="62" t="n">
+      <c r="G61" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
-        <v>5</v>
-      </c>
-      <c r="I61" s="62" t="n">
+        <v>41</v>
+      </c>
+      <c r="I61" s="63" t="n">
         <f aca="false">SUM(I11:I60)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" s="52"/>
     </row>
@@ -8166,7 +8398,7 @@
       <c r="C62" s="24"/>
       <c r="D62" s="24" t="n">
         <f aca="false">COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -8181,7 +8413,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -8194,7 +8426,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -8202,108 +8434,108 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="63" t="str">
+      <c r="B65" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64" t="n">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="64" t="n">
+        <v>13</v>
+      </c>
+      <c r="I65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="63" t="str">
+      <c r="B66" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64" t="n">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="64" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="63" t="str">
+      <c r="B67" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64" t="n">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="63" t="str">
+      <c r="B68" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64" t="n">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="63" t="e">
+      <c r="B69" s="64" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="64" t="e">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65" t="e">
         <f aca="false">SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>#REF!</v>
       </c>
-      <c r="I69" s="64" t="e">
+      <c r="I69" s="65" t="e">
         <f aca="false">SUMIF($F$11:$F$60,#REF!,I$11:I$60)</f>
         <v>#REF!</v>
       </c>
@@ -9240,7 +9472,7 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B10:J69"/>
+  <autoFilter ref="B10:J60"/>
   <mergeCells count="14">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -9257,32 +9489,32 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F60">
+  <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
@@ -9292,8 +9524,38 @@
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(F13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
       <formula1>$K$1:$K$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9480,7 +9742,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -9490,7 +9752,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -9503,28 +9765,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -9943,8 +10205,8 @@
         <v>19</v>
       </c>
       <c r="C29" s="56"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="58" t="n">
@@ -9961,8 +10223,8 @@
         <v>20</v>
       </c>
       <c r="C30" s="56"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="58" t="n">
@@ -9979,8 +10241,8 @@
         <v>21</v>
       </c>
       <c r="C31" s="56"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="58" t="n">
@@ -9997,8 +10259,8 @@
         <v>22</v>
       </c>
       <c r="C32" s="56"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="58" t="n">
@@ -10015,8 +10277,8 @@
         <v>23</v>
       </c>
       <c r="C33" s="56"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
       <c r="H33" s="58" t="n">
@@ -10033,8 +10295,8 @@
         <v>24</v>
       </c>
       <c r="C34" s="56"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
       <c r="H34" s="58" t="n">
@@ -10051,8 +10313,8 @@
         <v>25</v>
       </c>
       <c r="C35" s="56"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
       <c r="H35" s="58" t="n">
@@ -10069,8 +10331,8 @@
         <v>26</v>
       </c>
       <c r="C36" s="56"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="58" t="n">
@@ -10087,8 +10349,8 @@
         <v>27</v>
       </c>
       <c r="C37" s="56"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="58" t="n">
@@ -10105,8 +10367,8 @@
         <v>28</v>
       </c>
       <c r="C38" s="56"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
       <c r="H38" s="58" t="n">
@@ -10123,8 +10385,8 @@
         <v>29</v>
       </c>
       <c r="C39" s="56"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
       <c r="H39" s="58" t="n">
@@ -10141,8 +10403,8 @@
         <v>30</v>
       </c>
       <c r="C40" s="56"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="58" t="n">
@@ -10159,8 +10421,8 @@
         <v>31</v>
       </c>
       <c r="C41" s="56"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
       <c r="H41" s="58" t="n">
@@ -10177,8 +10439,8 @@
         <v>32</v>
       </c>
       <c r="C42" s="56"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
       <c r="H42" s="58" t="n">
@@ -10195,8 +10457,8 @@
         <v>33</v>
       </c>
       <c r="C43" s="56"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="58" t="n">
@@ -10213,8 +10475,8 @@
         <v>34</v>
       </c>
       <c r="C44" s="56"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
       <c r="H44" s="58" t="n">
@@ -10231,8 +10493,8 @@
         <v>35</v>
       </c>
       <c r="C45" s="56"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="58" t="n">
@@ -10249,8 +10511,8 @@
         <v>36</v>
       </c>
       <c r="C46" s="56"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
       <c r="H46" s="58" t="n">
@@ -10267,8 +10529,8 @@
         <v>37</v>
       </c>
       <c r="C47" s="56"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
       <c r="H47" s="58" t="n">
@@ -10285,8 +10547,8 @@
         <v>38</v>
       </c>
       <c r="C48" s="56"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
       <c r="H48" s="58" t="n">
@@ -10303,8 +10565,8 @@
         <v>39</v>
       </c>
       <c r="C49" s="56"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
       <c r="H49" s="58" t="n">
@@ -10321,8 +10583,8 @@
         <v>40</v>
       </c>
       <c r="C50" s="56"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
       <c r="H50" s="58" t="n">
@@ -10339,8 +10601,8 @@
         <v>41</v>
       </c>
       <c r="C51" s="56"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="58" t="n">
@@ -10357,8 +10619,8 @@
         <v>42</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="58" t="n">
@@ -10375,8 +10637,8 @@
         <v>43</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="58" t="n">
@@ -10393,8 +10655,8 @@
         <v>44</v>
       </c>
       <c r="C54" s="56"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="58" t="n">
@@ -10411,8 +10673,8 @@
         <v>45</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="58" t="n">
@@ -10429,8 +10691,8 @@
         <v>46</v>
       </c>
       <c r="C56" s="56"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
       <c r="H56" s="58" t="n">
@@ -10447,8 +10709,8 @@
         <v>47</v>
       </c>
       <c r="C57" s="56"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
       <c r="H57" s="58" t="n">
@@ -10465,8 +10727,8 @@
         <v>48</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="58" t="n">
@@ -10483,8 +10745,8 @@
         <v>49</v>
       </c>
       <c r="C59" s="56"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="58" t="n">
@@ -10501,8 +10763,8 @@
         <v>50</v>
       </c>
       <c r="C60" s="56"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="58" t="n">
@@ -10519,8 +10781,8 @@
         <v>51</v>
       </c>
       <c r="C61" s="56"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
       <c r="H61" s="58" t="n">
@@ -10537,8 +10799,8 @@
         <v>52</v>
       </c>
       <c r="C62" s="56"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
       <c r="H62" s="58" t="n">
@@ -10555,8 +10817,8 @@
         <v>53</v>
       </c>
       <c r="C63" s="56"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="58" t="n">
@@ -10573,8 +10835,8 @@
         <v>54</v>
       </c>
       <c r="C64" s="56"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
       <c r="H64" s="58" t="n">
@@ -10591,8 +10853,8 @@
         <v>55</v>
       </c>
       <c r="C65" s="56"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
       <c r="H65" s="58" t="n">
@@ -10609,8 +10871,8 @@
         <v>56</v>
       </c>
       <c r="C66" s="56"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
       <c r="H66" s="58" t="n">
@@ -10627,8 +10889,8 @@
         <v>57</v>
       </c>
       <c r="C67" s="56"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="58" t="n">
@@ -10645,8 +10907,8 @@
         <v>58</v>
       </c>
       <c r="C68" s="56"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
       <c r="H68" s="58" t="n">
@@ -10663,8 +10925,8 @@
         <v>59</v>
       </c>
       <c r="C69" s="56"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="58" t="n">
@@ -10681,14 +10943,14 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" s="62" t="n">
+      <c r="G70" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="62" t="n">
+      <c r="I70" s="63" t="n">
         <f aca="false">SUM(I11:I60)</f>
         <v>0</v>
       </c>
@@ -10715,7 +10977,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
@@ -10728,7 +10990,7 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="55" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -10736,108 +10998,108 @@
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
       <c r="H73" s="55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
-      <c r="B74" s="63" t="str">
+      <c r="B74" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64" t="n">
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="64" t="n">
+      <c r="I74" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
-      <c r="B75" s="63" t="str">
+      <c r="B75" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="64" t="n">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="64" t="n">
+      <c r="I75" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
-      <c r="B76" s="63" t="str">
+      <c r="B76" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="64" t="n">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="64" t="n">
+      <c r="I76" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="B77" s="63" t="str">
+      <c r="B77" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="64" t="n">
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="64" t="n">
+      <c r="I77" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
-      <c r="B78" s="63" t="e">
+      <c r="B78" s="64" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64" t="e">
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="65" t="e">
         <f aca="false">SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>#REF!</v>
       </c>
-      <c r="I78" s="64" t="e">
+      <c r="I78" s="65" t="e">
         <f aca="false">SUMIF($F$11:$F$60,#REF!,I$11:I$60)</f>
         <v>#REF!</v>
       </c>
@@ -11892,27 +12154,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$77),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$78),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F69">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C69">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C69" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C69" type="list">
       <formula1>$K$1:$K$28</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12098,7 +12360,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -12107,8 +12369,8 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="65" t="s">
-        <v>60</v>
+      <c r="J9" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -12121,28 +12383,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="66" t="s">
         <v>68</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -12157,7 +12419,7 @@
       <c r="C11" s="56"/>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
-      <c r="F11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="48"/>
       <c r="H11" s="58" t="n">
         <v>0</v>
@@ -12165,7 +12427,7 @@
       <c r="I11" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="51" t="n">
         <f aca="false">K10+1</f>
         <v>43590</v>
@@ -12189,7 +12451,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
-      <c r="F12" s="67"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="48"/>
       <c r="H12" s="58" t="n">
         <v>0</v>
@@ -12211,7 +12473,7 @@
       <c r="C13" s="56"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
-      <c r="F13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58" t="n">
         <v>0</v>
@@ -12219,7 +12481,7 @@
       <c r="I13" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="51" t="n">
         <f aca="false">K12+1</f>
         <v>43592</v>
@@ -12233,7 +12495,7 @@
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
-      <c r="F14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="48"/>
       <c r="H14" s="58" t="n">
         <v>0</v>
@@ -12241,7 +12503,7 @@
       <c r="I14" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="51" t="n">
         <f aca="false">K13+1</f>
         <v>43593</v>
@@ -12255,7 +12517,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58" t="n">
         <v>0</v>
@@ -12263,7 +12525,7 @@
       <c r="I15" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
@@ -12281,7 +12543,7 @@
       <c r="I16" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
@@ -12299,7 +12561,7 @@
       <c r="I17" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
@@ -12317,7 +12579,7 @@
       <c r="I18" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
@@ -12605,7 +12867,7 @@
       <c r="I34" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="69"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
@@ -12623,7 +12885,7 @@
       <c r="I35" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="69"/>
+      <c r="J35" s="70"/>
     </row>
     <row r="36" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
@@ -12641,7 +12903,7 @@
       <c r="I36" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="69"/>
+      <c r="J36" s="70"/>
     </row>
     <row r="37" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
@@ -12659,7 +12921,7 @@
       <c r="I37" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="69"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
@@ -12677,7 +12939,7 @@
       <c r="I38" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="69"/>
+      <c r="J38" s="70"/>
     </row>
     <row r="39" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
@@ -12695,7 +12957,7 @@
       <c r="I39" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="69"/>
+      <c r="J39" s="70"/>
     </row>
     <row r="40" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
@@ -12713,7 +12975,7 @@
       <c r="I40" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="69"/>
+      <c r="J40" s="70"/>
     </row>
     <row r="41" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
@@ -12731,7 +12993,7 @@
       <c r="I41" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="69"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
@@ -12749,7 +13011,7 @@
       <c r="I42" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="69"/>
+      <c r="J42" s="70"/>
     </row>
     <row r="43" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
@@ -12757,8 +13019,8 @@
         <v>33</v>
       </c>
       <c r="C43" s="56"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="58" t="n">
@@ -12767,7 +13029,7 @@
       <c r="I43" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="69"/>
+      <c r="J43" s="70"/>
     </row>
     <row r="44" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
@@ -12785,7 +13047,7 @@
       <c r="I44" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J44" s="69"/>
+      <c r="J44" s="70"/>
     </row>
     <row r="45" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
@@ -12803,7 +13065,7 @@
       <c r="I45" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="69"/>
+      <c r="J45" s="70"/>
     </row>
     <row r="46" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
@@ -12821,7 +13083,7 @@
       <c r="I46" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J46" s="69"/>
+      <c r="J46" s="70"/>
     </row>
     <row r="47" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
@@ -12839,7 +13101,7 @@
       <c r="I47" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J47" s="69"/>
+      <c r="J47" s="70"/>
     </row>
     <row r="48" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
@@ -12857,7 +13119,7 @@
       <c r="I48" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J48" s="69"/>
+      <c r="J48" s="70"/>
     </row>
     <row r="49" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
@@ -12875,7 +13137,7 @@
       <c r="I49" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J49" s="69"/>
+      <c r="J49" s="70"/>
     </row>
     <row r="50" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
@@ -12893,7 +13155,7 @@
       <c r="I50" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J50" s="69"/>
+      <c r="J50" s="70"/>
     </row>
     <row r="51" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
@@ -12911,7 +13173,7 @@
       <c r="I51" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="69"/>
+      <c r="J51" s="70"/>
     </row>
     <row r="52" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
@@ -12919,8 +13181,8 @@
         <v>42</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="58" t="n">
@@ -12929,7 +13191,7 @@
       <c r="I52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J52" s="69"/>
+      <c r="J52" s="70"/>
     </row>
     <row r="53" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
@@ -12937,8 +13199,8 @@
         <v>43</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="58" t="n">
@@ -12947,7 +13209,7 @@
       <c r="I53" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J53" s="69"/>
+      <c r="J53" s="70"/>
     </row>
     <row r="54" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
@@ -12955,8 +13217,8 @@
         <v>44</v>
       </c>
       <c r="C54" s="56"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="58" t="n">
@@ -12965,7 +13227,7 @@
       <c r="I54" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J54" s="68"/>
+      <c r="J54" s="69"/>
     </row>
     <row r="55" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
@@ -12973,8 +13235,8 @@
         <v>45</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="58" t="n">
@@ -12983,7 +13245,7 @@
       <c r="I55" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="68"/>
+      <c r="J55" s="69"/>
     </row>
     <row r="56" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
@@ -12991,8 +13253,8 @@
         <v>46</v>
       </c>
       <c r="C56" s="56"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
       <c r="H56" s="58" t="n">
@@ -13001,7 +13263,7 @@
       <c r="I56" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
@@ -13009,8 +13271,8 @@
         <v>47</v>
       </c>
       <c r="C57" s="56"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
       <c r="H57" s="58" t="n">
@@ -13019,7 +13281,7 @@
       <c r="I57" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
@@ -13027,8 +13289,8 @@
         <v>48</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="58" t="n">
@@ -13037,7 +13299,7 @@
       <c r="I58" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
@@ -13045,8 +13307,8 @@
         <v>49</v>
       </c>
       <c r="C59" s="56"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="58" t="n">
@@ -13055,7 +13317,7 @@
       <c r="I59" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
@@ -13063,8 +13325,8 @@
         <v>50</v>
       </c>
       <c r="C60" s="56"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="58" t="n">
@@ -13073,7 +13335,7 @@
       <c r="I60" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J60" s="68"/>
+      <c r="J60" s="69"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
@@ -13081,14 +13343,14 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="62" t="n">
+      <c r="G61" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="62" t="n">
+      <c r="I61" s="63" t="n">
         <f aca="false">SUM(I11:I60)</f>
         <v>0</v>
       </c>
@@ -13115,7 +13377,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -13128,7 +13390,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -13136,108 +13398,108 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="63" t="str">
+      <c r="B65" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64" t="n">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="64" t="n">
+      <c r="I65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="63" t="str">
+      <c r="B66" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64" t="n">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="64" t="n">
+      <c r="I66" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="63" t="str">
+      <c r="B67" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64" t="n">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="64" t="n">
+      <c r="I67" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="63" t="str">
+      <c r="B68" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64" t="n">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="64" t="n">
+      <c r="I68" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="63" t="e">
+      <c r="B69" s="64" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="64" t="e">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65" t="e">
         <f aca="false">SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>#REF!</v>
       </c>
-      <c r="I69" s="64" t="e">
+      <c r="I69" s="65" t="e">
         <f aca="false">SUMIF($F$11:$F$60,#REF!,I$11:I$60)</f>
         <v>#REF!</v>
       </c>
@@ -14302,22 +14564,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14412,27 +14674,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14492,37 +14754,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
       <formula1>$K$1:$K$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14709,7 +14971,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -14718,8 +14980,8 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="65" t="s">
-        <v>60</v>
+      <c r="J9" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -14732,28 +14994,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="66" t="s">
         <v>68</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -14852,7 +15114,7 @@
       <c r="I14" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="51" t="n">
         <f aca="false">K13+1</f>
         <v>43607</v>
@@ -14874,7 +15136,7 @@
       <c r="I15" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="51" t="n">
         <f aca="false">K14+1</f>
         <v>43608</v>
@@ -14896,7 +15158,7 @@
       <c r="I16" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="51" t="n">
         <f aca="false">K15+1</f>
         <v>43609</v>
@@ -14918,7 +15180,7 @@
       <c r="I17" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="69"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="51" t="n">
         <f aca="false">K16+1</f>
         <v>43610</v>
@@ -14940,7 +15202,7 @@
       <c r="I18" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="51" t="n">
         <f aca="false">K17+1</f>
         <v>43611</v>
@@ -14962,7 +15224,7 @@
       <c r="I19" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="51" t="n">
         <f aca="false">K18+1</f>
         <v>43612</v>
@@ -14984,7 +15246,7 @@
       <c r="I20" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="51" t="n">
         <f aca="false">K19+1</f>
         <v>43613</v>
@@ -15006,7 +15268,7 @@
       <c r="I21" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="69"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="51" t="n">
         <f aca="false">K20+1</f>
         <v>43614</v>
@@ -15028,7 +15290,7 @@
       <c r="I22" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15047,7 +15309,7 @@
       <c r="I23" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="51"/>
     </row>
     <row r="24" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15066,7 +15328,7 @@
       <c r="I24" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="69"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15085,7 +15347,7 @@
       <c r="I25" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="70"/>
       <c r="K25" s="51"/>
     </row>
     <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15104,7 +15366,7 @@
       <c r="I26" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="69"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="51"/>
     </row>
     <row r="27" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15123,7 +15385,7 @@
       <c r="I27" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="69"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="51"/>
     </row>
     <row r="28" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15142,7 +15404,7 @@
       <c r="I28" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="69"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15161,7 +15423,7 @@
       <c r="I29" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="69"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
@@ -15179,7 +15441,7 @@
       <c r="I30" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
@@ -15197,7 +15459,7 @@
       <c r="I31" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="69"/>
+      <c r="J31" s="70"/>
     </row>
     <row r="32" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
@@ -15215,7 +15477,7 @@
       <c r="I32" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="69"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
@@ -15233,7 +15495,7 @@
       <c r="I33" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="69"/>
+      <c r="J33" s="70"/>
     </row>
     <row r="34" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
@@ -15565,8 +15827,8 @@
         <v>42</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="58" t="n">
@@ -15583,8 +15845,8 @@
         <v>43</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="58" t="n">
@@ -15601,8 +15863,8 @@
         <v>44</v>
       </c>
       <c r="C54" s="56"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="58" t="n">
@@ -15619,8 +15881,8 @@
         <v>45</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="58" t="n">
@@ -15701,7 +15963,7 @@
       <c r="I59" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
@@ -15719,7 +15981,7 @@
       <c r="I60" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="J60" s="68"/>
+      <c r="J60" s="69"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
@@ -15727,14 +15989,14 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="62" t="n">
+      <c r="G61" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="62" t="n">
+      <c r="I61" s="63" t="n">
         <f aca="false">SUM(I11:I60)</f>
         <v>0</v>
       </c>
@@ -15761,7 +16023,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -15774,7 +16036,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -15782,108 +16044,108 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="63" t="str">
+      <c r="B65" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64" t="n">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="64" t="n">
+      <c r="I65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="63" t="str">
+      <c r="B66" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64" t="n">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="64" t="n">
+      <c r="I66" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="63" t="str">
+      <c r="B67" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64" t="n">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="64" t="n">
+      <c r="I67" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="63" t="str">
+      <c r="B68" s="64" t="str">
         <f aca="false">'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64" t="n">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="65" t="n">
         <f aca="false">SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="64" t="n">
+      <c r="I68" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B13,I$11:I$60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="63" t="e">
+      <c r="B69" s="64" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="64" t="e">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65" t="e">
         <f aca="false">SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>#REF!</v>
       </c>
-      <c r="I69" s="64" t="e">
+      <c r="I69" s="65" t="e">
         <f aca="false">SUMIF($F$11:$F$60,#REF!,I$11:I$60)</f>
         <v>#REF!</v>
       </c>
@@ -16948,22 +17210,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17028,7 +17290,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C60" type="list">
       <formula1>$K$1:$K$21</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -16,10 +16,10 @@
     <sheet name="Sprint #4" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #3'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #4'!$B$10:$J$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,6 +44,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preencha com os nomes dos integrantes do grupo.</t>
         </r>
@@ -57,6 +58,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Selecione a distribuição de responsabilidades.</t>
         </r>
@@ -80,6 +82,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">"Tarefas Criadas": Tarefas geradas e distribuídas nas sprints.
 "Tarefas Concluídas": Todas tarefas concluídas.
@@ -105,6 +108,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -118,6 +122,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -142,6 +147,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -155,6 +161,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -179,6 +186,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -192,6 +200,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -216,6 +225,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Distribuição de tarefas e esforço por aluno</t>
         </r>
@@ -229,6 +239,7 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Informações dos integrantes do grupo para serem discutidas em reunião diárias ou de final de Sprint.
 </t>
@@ -240,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t xml:space="preserve">PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -410,9 +421,6 @@
     <t xml:space="preserve">O funcionário deseja ver o valor total de vendas feitas por ele no dia</t>
   </si>
   <si>
-    <t xml:space="preserve">O funcionário/proprietário deseja poder ver alterações feitas em outra maquina</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROGRESSO</t>
   </si>
   <si>
@@ -522,12 +530,13 @@
     <numFmt numFmtId="166" formatCode="DD/MMM/YYYY\ "/>
     <numFmt numFmtId="167" formatCode="DD/MMM"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -546,60 +555,70 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b val="true"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -607,65 +626,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -700,12 +668,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -713,6 +683,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -721,73 +692,35 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF878787"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -834,13 +767,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF878787"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -850,27 +783,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -937,7 +855,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -961,57 +879,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1022,39 +889,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,47 +929,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,19 +977,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,91 +997,91 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1226,31 +1093,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="17" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1258,154 +1125,103 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1414,21 +1230,21 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF6D9EEB"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1443,21 +1259,21 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FFA4C2F4"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366CC"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFB6D7A8"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF3C78D8"/>
-      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF073763"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1517,10 +1333,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.193563113444419"/>
-          <c:y val="0.176666402472854"/>
-          <c:w val="0.641360419995435"/>
-          <c:h val="0.599508599508599"/>
+          <c:x val="0.193571950328707"/>
+          <c:y val="0.176680405833862"/>
+          <c:w val="0.641344046749452"/>
+          <c:h val="0.599476854787571"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1528,6 +1344,84 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$I$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Gasto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dc3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="dc3912"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint #3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados do Projeto'!$I$99:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Dados do Projeto'!$H$98</c:f>
@@ -1603,89 +1497,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$I$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo Gasto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="dc3912">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="dc3912"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint #1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint #2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint #3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados do Projeto'!$I$99:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="47545063"/>
-        <c:axId val="31898075"/>
+        <c:axId val="26392095"/>
+        <c:axId val="71936689"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="47545063"/>
+        <c:axId val="26392095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,14 +1533,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31898075"/>
+        <c:crossAx val="71936689"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31898075"/>
+        <c:axId val="71936689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47545063"/>
+        <c:crossAx val="26392095"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1858,9 +1674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
+      <xdr:colOff>579960</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1869,7 +1685,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1042920" y="3130560"/>
-        <a:ext cx="7885440" cy="4541760"/>
+        <a:ext cx="7885080" cy="4541400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4620,7 +4436,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5095,19 +4911,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48" t="s">
-        <v>47</v>
-      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6091,9 +5901,13 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="B120" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
@@ -6103,11 +5917,11 @@
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="49" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -6118,11 +5932,11 @@
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="49" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C122" s="49"/>
       <c r="D122" s="49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -6137,7 +5951,7 @@
       </c>
       <c r="C123" s="49"/>
       <c r="D123" s="49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -6147,12 +5961,10 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
-      <c r="B124" s="49" t="s">
-        <v>59</v>
-      </c>
+      <c r="B124" s="49"/>
       <c r="C124" s="49"/>
       <c r="D124" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -6160,19 +5972,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="1"/>
-    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6957,7 +6757,7 @@
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7049,7 +6849,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -7074,10 +6874,9 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H21:H29" type="list">
       <formula1>$B$212:$B$214</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7102,9 +6901,9 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7265,7 +7064,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -7275,7 +7074,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -7288,28 +7087,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="F10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="I10" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="J10" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -7325,16 +7124,16 @@
         <v>43538</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="58" t="n">
         <v>5</v>
@@ -7367,10 +7166,10 @@
         <v>43548</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>10</v>
@@ -7399,16 +7198,16 @@
         <v>43538</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="58" t="n">
         <v>2</v>
@@ -7431,10 +7230,10 @@
         <v>43548</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>10</v>
@@ -7463,7 +7262,7 @@
         <v>43544</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="57" t="n">
         <v>9</v>
@@ -7491,7 +7290,7 @@
         <v>43548</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>2</v>
@@ -7519,7 +7318,7 @@
         <v>43538</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>2</v>
@@ -7547,7 +7346,7 @@
         <v>43538</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>2</v>
@@ -7575,7 +7374,7 @@
         <v>43538</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="48" t="n">
         <v>2</v>
@@ -7603,7 +7402,7 @@
         <v>43538</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="57" t="n">
         <v>1</v>
@@ -7631,7 +7430,7 @@
         <v>43538</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="60" t="n">
         <v>1</v>
@@ -7659,7 +7458,7 @@
         <v>43548</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>1</v>
@@ -7687,7 +7486,7 @@
         <v>43548</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="57" t="n">
         <v>1</v>
@@ -8380,7 +8179,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -8413,7 +8212,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -8426,7 +8225,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -8434,7 +8233,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>
@@ -9472,7 +9271,7 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B10:J60"/>
+  <autoFilter ref="B10:J69"/>
   <mergeCells count="14">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -9742,7 +9541,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -9752,7 +9551,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -9765,28 +9564,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="F10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="I10" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="J10" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -10944,7 +10743,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -10977,7 +10776,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
@@ -10990,7 +10789,7 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -10998,7 +10797,7 @@
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
       <c r="H73" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="55" t="s">
         <v>20</v>
@@ -12360,7 +12159,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -12370,7 +12169,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -12383,28 +12182,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="F10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="I10" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="J10" s="67" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -13344,7 +13143,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -13377,7 +13176,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -13390,7 +13189,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -13398,7 +13197,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>
@@ -14971,7 +14770,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -14981,7 +14780,7 @@
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="51" t="n">
         <f aca="false">K8+1</f>
@@ -14994,28 +14793,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="F10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="I10" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="J10" s="67" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="51" t="n">
         <f aca="false">K9+1</f>
@@ -15990,7 +15789,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -16023,7 +15822,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -16036,7 +15835,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -16044,7 +15843,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>

--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -16,10 +16,10 @@
     <sheet name="Sprint #4" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #3'!$B$10:$J$60</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #4'!$B$10:$J$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sprint #1'!$B$10:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="93">
   <si>
     <t xml:space="preserve">PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cadastro de funcionário no banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação da página de gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualização dos gastos cadastrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação página cadastro de gasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro de gastos</t>
   </si>
   <si>
     <t xml:space="preserve">Total:</t>
@@ -1194,7 +1206,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1203,7 +1214,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1212,7 +1222,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1221,7 +1230,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1333,10 +1341,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.193571950328707"/>
-          <c:y val="0.176680405833862"/>
-          <c:w val="0.641344046749452"/>
-          <c:h val="0.599476854787571"/>
+          <c:x val="0.193580788019906"/>
+          <c:y val="0.176694411414982"/>
+          <c:w val="0.641327672008401"/>
+          <c:h val="0.59944510503369"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1344,6 +1352,84 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$H$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Previsto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366cc">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint #3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados do Projeto'!$H$99:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Dados do Projeto'!$I$98</c:f>
@@ -1404,7 +1490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1419,89 +1505,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$H$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo Previsto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366cc">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3366cc"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dados do Projeto'!$G$99:$G$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint #1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint #2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint #3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint #4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados do Projeto'!$H$99:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="26392095"/>
-        <c:axId val="71936689"/>
+        <c:axId val="59589487"/>
+        <c:axId val="11370947"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="26392095"/>
+        <c:axId val="59589487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,14 +1541,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71936689"/>
+        <c:crossAx val="11370947"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71936689"/>
+        <c:axId val="11370947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26392095"/>
+        <c:crossAx val="59589487"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1674,9 +1682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>579960</xdr:colOff>
+      <xdr:colOff>579600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1685,7 +1693,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1042920" y="3130560"/>
-        <a:ext cx="7885080" cy="4541400"/>
+        <a:ext cx="7884720" cy="4541040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3243,11 +3251,11 @@
       </c>
       <c r="H99" s="27" t="n">
         <f aca="false">'Sprint #1'!H$61</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I99" s="27" t="n">
         <f aca="false">'Sprint #1'!I$61</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="22" t="str">
@@ -3256,7 +3264,7 @@
       </c>
       <c r="L99" s="22" t="n">
         <f aca="false">SUM('Sprint #1'!$I65, 'Sprint #2'!$I74, 'Sprint #3'!$I65, 'Sprint #4'!$I65)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M99" s="21" t="s">
         <v>27</v>
@@ -6901,9 +6909,9 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7299,13 +7307,13 @@
         <v>8</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H16" s="58" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="57"/>
     </row>
@@ -7327,13 +7335,13 @@
         <v>8</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H17" s="58" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="57"/>
     </row>
@@ -7355,13 +7363,13 @@
         <v>8</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H18" s="58" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="57"/>
     </row>
@@ -7383,13 +7391,13 @@
         <v>8</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H19" s="58" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="57"/>
     </row>
@@ -7510,13 +7518,23 @@
       <c r="B24" s="46" t="n">
         <v>14</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="C24" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="58" t="n">
         <v>0</v>
@@ -7528,13 +7546,23 @@
       <c r="B25" s="46" t="n">
         <v>15</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="C25" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="58" t="n">
         <v>0</v>
@@ -7546,13 +7574,23 @@
       <c r="B26" s="46" t="n">
         <v>16</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="C26" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="58" t="n">
         <v>0</v>
@@ -7564,13 +7602,23 @@
       <c r="B27" s="46" t="n">
         <v>17</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="C27" s="56" t="n">
+        <v>43548</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="58" t="n">
         <v>0</v>
@@ -8179,15 +8227,15 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I61" s="63" t="n">
         <f aca="false">SUM(I11:I60)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J61" s="52"/>
     </row>
@@ -8197,7 +8245,7 @@
       <c r="C62" s="24"/>
       <c r="D62" s="24" t="n">
         <f aca="false">COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -8212,7 +8260,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -8225,7 +8273,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -8233,7 +8281,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>
@@ -8252,11 +8300,11 @@
       <c r="G65" s="64"/>
       <c r="H65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I65" s="65" t="n">
         <f aca="false">SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9271,7 +9319,7 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B10:J69"/>
+  <autoFilter ref="B10:J60"/>
   <mergeCells count="14">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
@@ -9318,7 +9366,7 @@
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C60">
+  <conditionalFormatting sqref="C28:C60 C11:C24">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
@@ -9351,6 +9399,21 @@
   <conditionalFormatting sqref="F13">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>LEN(TRIM(F13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISNUMBER(C25),TRUNC(C25)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISNUMBER(C26),TRUNC(C26)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISNUMBER(C27),TRUNC(C27)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9541,7 +9604,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -10743,7 +10806,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H70" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -10776,7 +10839,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
@@ -10789,7 +10852,7 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -10797,7 +10860,7 @@
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
       <c r="H73" s="55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I73" s="55" t="s">
         <v>20</v>
@@ -12159,7 +12222,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -13143,7 +13206,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -13176,7 +13239,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -13189,7 +13252,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -13197,7 +13260,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>
@@ -14770,7 +14833,7 @@
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="53" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -15789,7 +15852,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H61" s="63" t="n">
         <f aca="false">SUM(H11:H60)</f>
@@ -15822,7 +15885,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -15835,7 +15898,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -15843,7 +15906,7 @@
       <c r="F64" s="55"/>
       <c r="G64" s="55"/>
       <c r="H64" s="55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I64" s="55" t="s">
         <v>20</v>

--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\codigos\GastosUnidunite\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A4B3B-FC62-4CB4-A0BA-5F4F9CBD68DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978C726-DD61-4B74-B470-24F5ABF68C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,6 +1029,33 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,42 +1068,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,11 +1089,17 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1105,10 +1109,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2455,7 +2455,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3576,93 +3576,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="62" t="s">
         <v>9</v>
       </c>
@@ -3670,12 +3670,12 @@
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="62" t="s">
         <v>11</v>
       </c>
@@ -3683,12 +3683,12 @@
       <c r="H11" s="62"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="62" t="s">
         <v>13</v>
       </c>
@@ -3696,12 +3696,12 @@
       <c r="H12" s="62"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="62" t="s">
         <v>15</v>
       </c>
@@ -3809,16 +3809,16 @@
     <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65" t="s">
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65" t="s">
+      <c r="E98" s="60"/>
+      <c r="F98" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="65"/>
+      <c r="G98" s="60"/>
       <c r="H98" s="8" t="s">
         <v>19</v>
       </c>
@@ -3840,12 +3840,12 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67" t="s">
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="67"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="10" t="s">
         <v>25</v>
       </c>
@@ -3879,12 +3879,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67" t="s">
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="67"/>
+      <c r="E100" s="58"/>
       <c r="F100" s="10" t="s">
         <v>29</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="I100" s="14">
         <f>'Sprint #2'!I$25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="11" t="str">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="L100" s="11">
         <f>SUM('Sprint #1'!$I66, 'Sprint #2'!$I30, 'Sprint #3'!$I66, 'Sprint #4'!$I66)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10" t="s">
         <v>31</v>
@@ -3918,12 +3918,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67" t="s">
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="67"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="10"/>
       <c r="G101" s="11" t="s">
         <v>33</v>
@@ -3955,12 +3955,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67" t="s">
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="67"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="10"/>
       <c r="G102" s="11" t="s">
         <v>35</v>
@@ -3990,12 +3990,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="67" t="s">
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="67"/>
+      <c r="E103" s="58"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="11"/>
@@ -4006,8 +4006,8 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -4018,8 +4018,8 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="1"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -4988,6 +4988,27 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
@@ -4998,27 +5019,6 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="F10:F13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5058,59 +5058,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -5122,16 +5122,16 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="77" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -5143,15 +5143,15 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
@@ -5163,11 +5163,11 @@
       <c r="D10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
@@ -5183,9 +5183,9 @@
         <f>C11+13</f>
         <v>43551</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5200,9 +5200,9 @@
         <f>C12+27</f>
         <v>43579</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,9 +5217,9 @@
         <f>C13+13</f>
         <v>43593</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5319,13 +5319,13 @@
       <c r="B21" s="27">
         <v>1</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="28" t="s">
         <v>47</v>
       </c>
@@ -5344,13 +5344,13 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="28" t="s">
         <v>47</v>
       </c>
@@ -5359,13 +5359,13 @@
       <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="28" t="s">
         <v>47</v>
       </c>
@@ -5374,13 +5374,13 @@
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="28" t="s">
         <v>47</v>
       </c>
@@ -5389,13 +5389,13 @@
       <c r="B25" s="25">
         <v>5</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="28" t="s">
         <v>47</v>
       </c>
@@ -5404,13 +5404,13 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="28" t="s">
         <v>47</v>
       </c>
@@ -5419,13 +5419,13 @@
       <c r="B27" s="25">
         <v>7</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="28" t="s">
         <v>47</v>
       </c>
@@ -5434,13 +5434,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="28" t="s">
         <v>47</v>
       </c>
@@ -5449,13 +5449,13 @@
       <c r="B29" s="25">
         <v>9</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="28" t="s">
         <v>47</v>
       </c>
@@ -5464,13 +5464,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="28" t="s">
         <v>47</v>
       </c>
@@ -5479,13 +5479,13 @@
       <c r="B31" s="25">
         <v>11</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="28" t="s">
         <v>47</v>
       </c>
@@ -5494,13 +5494,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="28" t="s">
         <v>47</v>
       </c>
@@ -7129,6 +7129,26 @@
     <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C26:G26"/>
@@ -7136,26 +7156,6 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H21:H32" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7198,85 +7198,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="31">
         <f>Requisitos!C11</f>
         <v>43538</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>43539</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43540</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43541</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43542</v>
@@ -7290,18 +7290,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="63" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43544</v>
@@ -7315,16 +7315,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="33" t="s">
         <v>60</v>
       </c>
@@ -8443,26 +8443,26 @@
       <c r="J62" s="32"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="34" t="s">
         <v>89</v>
       </c>
@@ -8471,15 +8471,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="81" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>17</v>
@@ -8490,15 +8490,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="81" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>20</v>
@@ -8509,15 +8509,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="81" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>4</v>
@@ -8528,15 +8528,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="81" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>4</v>
@@ -9480,6 +9480,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -9488,11 +9493,6 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" dxfId="146" priority="2">
@@ -9590,8 +9590,8 @@
   <dimension ref="A1:U954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9610,85 +9610,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="31">
         <f>Requisitos!C12</f>
         <v>43552</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K23" si="0">K1+1</f>
         <v>43553</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43554</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43555</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -9702,18 +9702,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="63" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43558</v>
@@ -9727,16 +9727,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="33" t="s">
         <v>60</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>47</v>
@@ -9961,7 +9961,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H16" s="37">
         <v>3</v>
@@ -9992,13 +9992,13 @@
         <v>10</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H17" s="37">
         <v>1</v>
       </c>
       <c r="I17" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="31">
@@ -10019,7 +10019,7 @@
       <c r="E18" s="28">
         <v>5</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="56" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="28" t="s">
@@ -10050,7 +10050,7 @@
       <c r="E19" s="28">
         <v>5</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="56" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="28" t="s">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="I25" s="41">
         <f>SUM(I11:I24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="32"/>
     </row>
@@ -10199,26 +10199,26 @@
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="34" t="s">
         <v>89</v>
       </c>
@@ -10227,18 +10227,18 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="str">
+      <c r="B29" s="81" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="42">
         <f>SUMIF($F$11:$F$24,'Dados do Projeto'!$B10,H$11:H$24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="42">
         <f>SUMIF($F$11:$F$24,'Dados do Projeto'!$B10,I$11:I$24)</f>
@@ -10246,34 +10246,34 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="str">
+      <c r="B30" s="81" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="42">
         <f>SUMIF(F$11:F$24,'Dados do Projeto'!B11,H$11:H$24)</f>
         <v>4</v>
       </c>
       <c r="I30" s="42">
         <f>SUMIF($F$11:$F$24,'Dados do Projeto'!$B11,I$11:I$24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="str">
+      <c r="B31" s="81" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="42">
         <f>SUMIF(F$11:F$24,'Dados do Projeto'!B12,H$11:H$24)</f>
         <v>4</v>
@@ -10284,25 +10284,25 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79" t="str">
+      <c r="B32" s="81" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="42">
         <f>SUMIF(F$11:F$24,'Dados do Projeto'!B13,H$11:H$24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" s="42">
         <f>SUMIF($F$11:$F$24,'Dados do Projeto'!$B13,I$11:I$24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11226,6 +11226,11 @@
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -11234,11 +11239,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F18:F24">
     <cfRule type="expression" dxfId="131" priority="30">
@@ -11376,7 +11376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F24">
-    <cfRule type="expression" dxfId="0" priority="73">
+    <cfRule type="expression" dxfId="104" priority="73">
       <formula>NOT(ISERROR(SEARCH((#REF!),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11425,85 +11425,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="31">
         <f>Requisitos!C13</f>
         <v>43580</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>43581</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43582</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43583</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43584</v>
@@ -11516,18 +11516,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="63" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -11540,16 +11540,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="43" t="s">
         <v>60</v>
       </c>
@@ -12496,26 +12496,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="34" t="s">
         <v>89</v>
       </c>
@@ -12524,15 +12524,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="81" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -12543,15 +12543,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="81" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -12562,15 +12562,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="81" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -12581,15 +12581,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="81" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -12600,15 +12600,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="79" t="e">
+      <c r="B69" s="81" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>0</v>
@@ -13552,6 +13552,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -13561,339 +13566,334 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="104" priority="2">
+    <cfRule type="expression" dxfId="103" priority="2">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="102" priority="3">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="101" priority="4">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="101" priority="5">
+    <cfRule type="expression" dxfId="100" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="99" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="99" priority="7">
+    <cfRule type="expression" dxfId="98" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="98" priority="8">
+    <cfRule type="expression" dxfId="97" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="97" priority="9">
+    <cfRule type="expression" dxfId="96" priority="9">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="96" priority="10">
+    <cfRule type="expression" dxfId="95" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="95" priority="11">
+    <cfRule type="expression" dxfId="94" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="94" priority="12">
+    <cfRule type="expression" dxfId="93" priority="12">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="93" priority="13">
+    <cfRule type="expression" dxfId="92" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="92" priority="14">
+    <cfRule type="expression" dxfId="91" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="91" priority="15">
+    <cfRule type="expression" dxfId="90" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="89" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="88" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="88" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="87" priority="19">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="86" priority="20">
+    <cfRule type="expression" dxfId="85" priority="20">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="85" priority="21">
+    <cfRule type="expression" dxfId="84" priority="21">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="84" priority="22">
+    <cfRule type="expression" dxfId="83" priority="22">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="83" priority="23">
+    <cfRule type="expression" dxfId="82" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="82" priority="24">
+    <cfRule type="expression" dxfId="81" priority="24">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="81" priority="25">
+    <cfRule type="expression" dxfId="80" priority="25">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="80" priority="26">
+    <cfRule type="expression" dxfId="79" priority="26">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="79" priority="27">
+    <cfRule type="expression" dxfId="78" priority="27">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="78" priority="28">
+    <cfRule type="expression" dxfId="77" priority="28">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="77" priority="29">
+    <cfRule type="expression" dxfId="76" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="76" priority="30">
+    <cfRule type="expression" dxfId="75" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="75" priority="31">
+    <cfRule type="expression" dxfId="74" priority="31">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="74" priority="32">
+    <cfRule type="expression" dxfId="73" priority="32">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="73" priority="33">
+    <cfRule type="expression" dxfId="72" priority="33">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="72" priority="34">
+    <cfRule type="expression" dxfId="71" priority="34">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="71" priority="35">
+    <cfRule type="expression" dxfId="70" priority="35">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="70" priority="36">
+    <cfRule type="expression" dxfId="69" priority="36">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="69" priority="37">
+    <cfRule type="expression" dxfId="68" priority="37">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="68" priority="38">
+    <cfRule type="expression" dxfId="67" priority="38">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="67" priority="39">
+    <cfRule type="expression" dxfId="66" priority="39">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="66" priority="40">
+    <cfRule type="expression" dxfId="65" priority="40">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="65" priority="41">
+    <cfRule type="expression" dxfId="64" priority="41">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="64" priority="42">
+    <cfRule type="expression" dxfId="63" priority="42">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="63" priority="43">
+    <cfRule type="expression" dxfId="62" priority="43">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="62" priority="44">
+    <cfRule type="expression" dxfId="61" priority="44">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="61" priority="45">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="60" priority="46">
+    <cfRule type="expression" dxfId="59" priority="46">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="59" priority="47">
+    <cfRule type="expression" dxfId="58" priority="47">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F15">
-    <cfRule type="expression" dxfId="58" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="56" priority="49">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="54" priority="51">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="48" priority="58">
+    <cfRule type="expression" dxfId="47" priority="58">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="47" priority="59">
+    <cfRule type="expression" dxfId="46" priority="59">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="expression" dxfId="46" priority="60">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="45" priority="61">
+    <cfRule type="expression" dxfId="44" priority="61">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="44" priority="62">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="43" priority="63">
+    <cfRule type="expression" dxfId="42" priority="63">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="42" priority="64">
+    <cfRule type="expression" dxfId="41" priority="64">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="40" priority="65">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="40" priority="66">
+    <cfRule type="expression" dxfId="39" priority="66">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="39" priority="67">
+    <cfRule type="expression" dxfId="38" priority="67">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13938,85 +13938,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="31">
         <f>Requisitos!C14</f>
         <v>43594</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>43595</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43596</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43597</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43598</v>
@@ -14029,18 +14029,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="63" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43600</v>
@@ -14053,16 +14053,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="43" t="s">
         <v>60</v>
       </c>
@@ -15044,26 +15044,26 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="34" t="s">
         <v>89</v>
       </c>
@@ -15072,15 +15072,15 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="81" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Aylton Almeida</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -15091,15 +15091,15 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="str">
+      <c r="B66" s="81" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Lucas Lima</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -15110,15 +15110,15 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="79" t="str">
+      <c r="B67" s="81" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>Nayane Ornelas</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -15129,15 +15129,15 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="81" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Pedro Paulo</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -15148,15 +15148,15 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="79" t="e">
+      <c r="B69" s="81" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,#REF!,H$11:H$60)</f>
         <v>0</v>
@@ -16100,6 +16100,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -16109,199 +16114,194 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="28" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="27" priority="12">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="12" priority="28">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="11" priority="29">
+    <cfRule type="expression" dxfId="10" priority="29">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="9" priority="30">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="9" priority="31">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="7" priority="32">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="7" priority="33">
+    <cfRule type="expression" dxfId="6" priority="33">
       <formula>NOT(ISERROR(SEARCH(($B$65),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="5" priority="34">
       <formula>NOT(ISERROR(SEARCH(($B$66),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="5" priority="35">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>NOT(ISERROR(SEARCH(($B$67),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>NOT(ISERROR(SEARCH(($B$68),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="3" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>NOT(ISERROR(SEARCH(($B$69),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F60">
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="1" priority="38">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C60">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="0" priority="39">
       <formula>AND(ISNUMBER(C11),TRUNC(C11)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentação/Planejamento de Sprints.xlsx
+++ b/Documentação/Planejamento de Sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylto\IdeaProjects\GastosUnidunite\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F3D0F-0CCD-4341-8253-C850374F25BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1FA9F-06A2-42D0-A33E-021EA6054A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,6 +1060,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,42 +1095,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,11 +1116,17 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2569,7 +2569,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3687,137 +3687,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="65" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,16 +3920,16 @@
     <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="68" t="s">
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68" t="s">
+      <c r="E98" s="61"/>
+      <c r="F98" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="68"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="8" t="s">
         <v>19</v>
       </c>
@@ -3951,12 +3951,12 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="70" t="s">
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="70"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="10" t="s">
         <v>25</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="L99" s="11">
         <f>SUM('Sprint #1'!$I65, 'Sprint #2'!$I29, 'Sprint #3'!$I65, 'Sprint #4'!$I65)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10" t="s">
         <v>27</v>
@@ -3990,12 +3990,12 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70" t="s">
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="70"/>
+      <c r="E100" s="59"/>
       <c r="F100" s="10" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="L100" s="11">
         <f>SUM('Sprint #1'!$I66, 'Sprint #2'!$I30, 'Sprint #3'!$I66, 'Sprint #4'!$I66)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M100" s="10" t="s">
         <v>31</v>
@@ -4029,12 +4029,12 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="70" t="s">
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="70"/>
+      <c r="E101" s="59"/>
       <c r="F101" s="10"/>
       <c r="G101" s="11" t="s">
         <v>33</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="I101" s="14">
         <f>'Sprint #3'!I$61</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J101" s="10"/>
       <c r="K101" s="11" t="str">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="L101" s="11">
         <f>SUM('Sprint #1'!$I67, 'Sprint #2'!$I31, 'Sprint #3'!$I67, 'Sprint #4'!$I67)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M101" s="10" t="s">
         <v>34</v>
@@ -4066,12 +4066,12 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70" t="s">
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="70"/>
+      <c r="E102" s="59"/>
       <c r="F102" s="10"/>
       <c r="G102" s="11" t="s">
         <v>35</v>
@@ -4101,12 +4101,12 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="70" t="s">
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="70"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="11"/>
@@ -4117,8 +4117,8 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -4129,8 +4129,8 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="1"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -5099,6 +5099,27 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
@@ -5109,27 +5130,6 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="F10:F13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5169,59 +5169,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
@@ -5233,16 +5233,16 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="78" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
@@ -5254,15 +5254,15 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
@@ -5274,11 +5274,11 @@
       <c r="D10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
@@ -5294,9 +5294,9 @@
         <f>C11+13</f>
         <v>43551</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5311,9 +5311,9 @@
         <f>C12+27</f>
         <v>43579</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5328,9 +5328,9 @@
         <f>C13+13</f>
         <v>43593</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5345,9 +5345,9 @@
         <f>C14+20</f>
         <v>43614</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5379,13 +5379,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="21" t="s">
         <v>44</v>
       </c>
@@ -5394,11 +5394,11 @@
       <c r="B19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="23" t="s">
         <v>45</v>
       </c>
@@ -5408,11 +5408,11 @@
       <c r="B20" s="25">
         <v>0</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="26"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5430,13 +5430,13 @@
       <c r="B21" s="27">
         <v>1</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="28"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -5453,39 +5453,39 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="28" t="s">
         <v>47</v>
       </c>
@@ -5494,13 +5494,13 @@
       <c r="B25" s="25">
         <v>5</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="28" t="s">
         <v>47</v>
       </c>
@@ -5509,26 +5509,26 @@
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>7</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="28" t="s">
         <v>47</v>
       </c>
@@ -5537,13 +5537,13 @@
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="28" t="s">
         <v>47</v>
       </c>
@@ -5552,13 +5552,13 @@
       <c r="B29" s="25">
         <v>9</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="28" t="s">
         <v>47</v>
       </c>
@@ -5567,13 +5567,13 @@
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="28" t="s">
         <v>47</v>
       </c>
@@ -5582,13 +5582,13 @@
       <c r="B31" s="25">
         <v>11</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="28" t="s">
         <v>47</v>
       </c>
@@ -5597,13 +5597,13 @@
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="28" t="s">
         <v>47</v>
       </c>
@@ -7232,6 +7232,26 @@
     <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C26:G26"/>
@@ -7239,26 +7259,6 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H21:H32" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7301,85 +7301,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="31">
         <f>Requisitos!C11</f>
         <v>43538</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>43539</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43540</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43541</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43542</v>
@@ -7393,18 +7393,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="64" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43544</v>
@@ -9583,6 +9583,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -9591,11 +9596,6 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F60 F11:F12">
     <cfRule type="expression" dxfId="158" priority="2">
@@ -9713,85 +9713,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="31">
         <f>Requisitos!C12</f>
         <v>43552</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K23" si="0">K1+1</f>
         <v>43553</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43554</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43555</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -9805,18 +9805,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="64" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43558</v>
@@ -11329,6 +11329,11 @@
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -11337,11 +11342,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F18:F24">
     <cfRule type="expression" dxfId="143" priority="30">
@@ -11508,8 +11508,8 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11528,85 +11528,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="31">
         <f>Requisitos!C13</f>
         <v>43580</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>43581</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43582</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43583</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43584</v>
@@ -11619,18 +11619,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="64" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -11712,13 +11712,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H11" s="37">
         <v>1</v>
       </c>
       <c r="I11" s="37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="31">
@@ -11900,13 +11900,13 @@
         <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H17" s="37">
         <v>2</v>
       </c>
       <c r="I17" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="45"/>
     </row>
@@ -11927,13 +11927,13 @@
         <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H18" s="37">
         <v>2</v>
       </c>
       <c r="I18" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -11954,13 +11954,13 @@
         <v>12</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H19" s="37">
         <v>1</v>
       </c>
       <c r="I19" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="36"/>
     </row>
@@ -11981,13 +11981,13 @@
         <v>12</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H20" s="37">
         <v>1</v>
       </c>
       <c r="I20" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="36"/>
     </row>
@@ -12008,13 +12008,13 @@
         <v>12</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H21" s="37">
         <v>1</v>
       </c>
       <c r="I21" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="36"/>
     </row>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="I61" s="41">
         <f>SUM(I11:I60)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="I65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="I66" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B11,I$11:I$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="I67" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B12,I$11:I$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13765,6 +13765,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -13774,11 +13779,6 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C60">
     <cfRule type="expression" dxfId="115" priority="14">
@@ -14211,85 +14211,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="31">
         <f>Requisitos!C14</f>
         <v>43594</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>43595</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
         <v>43596</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
         <v>43597</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>43598</v>
@@ -14302,18 +14302,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="64" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Gerenciador Finânceiro Uni Duni Tê</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
         <v>43600</v>
@@ -16373,6 +16373,11 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B68:G68"/>
@@ -16382,11 +16387,6 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="expression" dxfId="37" priority="2">
